--- a/ApolloQA/Data/RatingManual/GA/VA00065.InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00065.InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.InsuranceScoreTierFactors" sheetId="1" r:id="Rcc10ddb22eeb493a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.InsuranceScoreTierFactors" sheetId="1" r:id="Rd12149a705f642b0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,15 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Insurance Score Tier</x:v>
+        <x:v>Organization Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Insurance Score Tier Factor</x:v>
+        <x:v>Organization Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB01</x:v>
+        <x:v>Churches and Religious Organizations</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,7 +28,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB02</x:v>
+        <x:v>Corporation</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -36,7 +36,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB03</x:v>
+        <x:v>Counties/Townships/Parishes, Etc.</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -44,7 +44,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB04</x:v>
+        <x:v>Districts/Precincts</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -52,7 +52,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB05</x:v>
+        <x:v>Federal</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -60,7 +60,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB06</x:v>
+        <x:v>Indian Tribes</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -68,7 +68,15 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB07</x:v>
+        <x:v>Individual</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1023</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>LLC</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -76,7 +84,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB08</x:v>
+        <x:v>Municipality</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -84,7 +92,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB09</x:v>
+        <x:v>Other</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -92,7 +100,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB10</x:v>
+        <x:v>Other Non-Profit Associations and Organizations</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -100,7 +108,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB11</x:v>
+        <x:v>Partnership</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -108,7 +116,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB12</x:v>
+        <x:v>Rural</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -116,7 +124,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB13</x:v>
+        <x:v>Schools</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -124,7 +132,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB14</x:v>
+        <x:v>Social Service Agencies and Organizations</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -132,47 +140,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB15</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>AB16</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>AB17</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABNA</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABNH</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABTF</x:v>
+        <x:v>States</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
